--- a/알고리즘_완성_상세플랜.xlsx
+++ b/알고리즘_완성_상세플랜.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Others\backjoonalgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B801FB-6ADE-4EBA-9F6F-58AB34032776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C0BCB3-1977-49F8-B48A-94C90B564E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
   <si>
     <t>주차</t>
   </si>
@@ -424,9 +424,6 @@
     <t>https://www.acmicpc.net/problem/3190</t>
   </si>
   <si>
-    <t>6주차</t>
-  </si>
-  <si>
     <t>DFS/BFS + 조건 처리</t>
   </si>
   <si>
@@ -440,6 +437,10 @@
   </si>
   <si>
     <t>https://www.acmicpc.net/problem/10026</t>
+  </si>
+  <si>
+    <t>5주차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,13 +517,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -829,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1266,204 +1265,136 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>113</v>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1518,16 +1449,8 @@
     <hyperlink ref="F25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="D26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="F26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
